--- a/biology/Botanique/Thomas_Moore_(botaniste)/Thomas_Moore_(botaniste).xlsx
+++ b/biology/Botanique/Thomas_Moore_(botaniste)/Thomas_Moore_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Moore est un botaniste et un  horticulteur britannique, né le 21 mai 1821 à Stoke next Guildford et mort le 1er janvier 1887.
 Il dirige le jardin botanique de Chelsea. Il participe notamment à la publication de The Florist and Garden Miscellany (1850-1851), The Gardener’s Magazine of Botany, Horticulture, Floriculture and Natural Science (1850-1852) et The Florist and Pomologist: a pictorial monthly magazine of flowers, fruits, and general horticulture (1862-1884). Son The elements of botany for families and schools sera plusieurs fois réédité.
@@ -512,7 +524,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>A Handbook of British Ferns: intended as a guide and companion to fern culture and comprising scientific and popular descriptions of all the species indigenous to Britain, with remarks on their history and cultivation (Londres, 1848).
 A Popular History of the British Ferns and the allied plants (Londres, 1851, réédité en 1855, 1862 et en 1865).
